--- a/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,54 +506,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -565,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,22 +561,6 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -559,6 +560,257 @@
       </c>
       <c r="B4" t="n">
         <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2.463750073181931</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.78990538256816</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.734667439668481</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.41541578813079</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.079218478429326</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.24532590745517</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.857418722689614</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.87513930536478</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.31344500023</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.69956411384563</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>44</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.82769782933742</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.8568065363188</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.5956736355858</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73.48366664593766</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.72899944089818</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.7507093112505</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.05095738922711</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78.79735346835274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.31308836874632</v>
+      </c>
+      <c r="D11" t="n">
+        <v>79.92559097854826</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30.07408698667792</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84.26388407208789</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>59</v>
+      </c>
+      <c r="C13" t="n">
+        <v>33.51668203267909</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86.85808305136743</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" t="n">
+        <v>35.2065736833816</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.52580844330572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>39.93953006600972</v>
+      </c>
+      <c r="D15" t="n">
+        <v>92.409961144289</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41.77697792982288</v>
+      </c>
+      <c r="D16" t="n">
+        <v>94.35793437627471</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR2K3QJ_po_data.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,16 +592,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -610,12 +600,6 @@
       <c r="B2" t="n">
         <v>23</v>
       </c>
-      <c r="C2" t="n">
-        <v>-2.463750073181931</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.78990538256816</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -624,12 +608,6 @@
       <c r="B3" t="n">
         <v>26</v>
       </c>
-      <c r="C3" t="n">
-        <v>-1.734667439668481</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.41541578813079</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,12 +616,6 @@
       <c r="B4" t="n">
         <v>33</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.079218478429326</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.24532590745517</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -652,12 +624,6 @@
       <c r="B5" t="n">
         <v>36</v>
       </c>
-      <c r="C5" t="n">
-        <v>8.857418722689614</v>
-      </c>
-      <c r="D5" t="n">
-        <v>61.87513930536478</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -666,12 +632,6 @@
       <c r="B6" t="n">
         <v>41</v>
       </c>
-      <c r="C6" t="n">
-        <v>15.31344500023</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.69956411384563</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -680,12 +640,6 @@
       <c r="B7" t="n">
         <v>44</v>
       </c>
-      <c r="C7" t="n">
-        <v>15.82769782933742</v>
-      </c>
-      <c r="D7" t="n">
-        <v>70.8568065363188</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -694,12 +648,6 @@
       <c r="B8" t="n">
         <v>46</v>
       </c>
-      <c r="C8" t="n">
-        <v>21.5956736355858</v>
-      </c>
-      <c r="D8" t="n">
-        <v>73.48366664593766</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -708,12 +656,6 @@
       <c r="B9" t="n">
         <v>49</v>
       </c>
-      <c r="C9" t="n">
-        <v>23.72899944089818</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74.7507093112505</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -722,12 +664,6 @@
       <c r="B10" t="n">
         <v>52</v>
       </c>
-      <c r="C10" t="n">
-        <v>25.05095738922711</v>
-      </c>
-      <c r="D10" t="n">
-        <v>78.79735346835274</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -736,12 +672,6 @@
       <c r="B11" t="n">
         <v>54</v>
       </c>
-      <c r="C11" t="n">
-        <v>28.31308836874632</v>
-      </c>
-      <c r="D11" t="n">
-        <v>79.92559097854826</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -750,12 +680,6 @@
       <c r="B12" t="n">
         <v>57</v>
       </c>
-      <c r="C12" t="n">
-        <v>30.07408698667792</v>
-      </c>
-      <c r="D12" t="n">
-        <v>84.26388407208789</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -764,12 +688,6 @@
       <c r="B13" t="n">
         <v>59</v>
       </c>
-      <c r="C13" t="n">
-        <v>33.51668203267909</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86.85808305136743</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -778,12 +696,6 @@
       <c r="B14" t="n">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
-        <v>35.2065736833816</v>
-      </c>
-      <c r="D14" t="n">
-        <v>87.52580844330572</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -792,12 +704,6 @@
       <c r="B15" t="n">
         <v>65</v>
       </c>
-      <c r="C15" t="n">
-        <v>39.93953006600972</v>
-      </c>
-      <c r="D15" t="n">
-        <v>92.409961144289</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -805,12 +711,6 @@
       </c>
       <c r="B16" t="n">
         <v>67</v>
-      </c>
-      <c r="C16" t="n">
-        <v>41.77697792982288</v>
-      </c>
-      <c r="D16" t="n">
-        <v>94.35793437627471</v>
       </c>
     </row>
   </sheetData>
